--- a/data/reports/W45_2025.xlsx
+++ b/data/reports/W45_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD2857-95F1-47AF-BD6C-257EE572B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA29F9B-FF6F-4879-AC0E-8623FBFF37E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t xml:space="preserve"> | 4-11 Nov 2026</t>
-  </si>
-  <si>
     <t>COP 2025</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 27 Oct -3 Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -692,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -723,19 +723,19 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -743,92 +743,92 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>15</v>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>17</v>
@@ -888,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
@@ -998,27 +998,27 @@
     </row>
     <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
@@ -1027,24 +1027,24 @@
         <v>8</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/reports/W45_2025.xlsx
+++ b/data/reports/W45_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA29F9B-FF6F-4879-AC0E-8623FBFF37E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AA9D45-D973-44BA-B5FB-2AD4E6D6B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
-    <t>GCMC Design team weeky WIP</t>
-  </si>
-  <si>
     <t>Campaign (group)</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>due 28 Oct</t>
   </si>
   <si>
-    <t>Last updated 1 Nov, 15:00</t>
-  </si>
-  <si>
     <t>Extreme</t>
   </si>
   <si>
@@ -219,7 +213,13 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t xml:space="preserve"> | 27 Oct -3 Nov 2025</t>
+    <t xml:space="preserve"> | 21 Oct - 28 Oct 2025</t>
+  </si>
+  <si>
+    <t>Last updated 28 Oct, 15:07</t>
+  </si>
+  <si>
+    <t>GCMC Design Team Weeky WIP</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -692,50 +692,50 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -743,308 +743,308 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/reports/W45_2025.xlsx
+++ b/data/reports/W45_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7804D7-0466-43D5-809D-AB5671B05464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA34B2D-EC15-489F-B11E-FE2C10C9D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>Campaign (group)</t>
   </si>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -859,16 +859,16 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,163 +876,214 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="22" spans="1:5" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E20">
-    <sortCondition ref="A3:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E23">
+    <sortCondition ref="A3:A23"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1040,7 +1091,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{E5BFD1E3-D60A-48B7-887F-264F651EBB2F}">
       <formula1>"Very Light,Light,Medium,Med-High,High,Overloaded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D23" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
       <formula1>"To Do,In Progress,In Review,Done,On-hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/reports/W45_2025.xlsx
+++ b/data/reports/W45_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3763FCFD-F9F4-4BCB-ABCB-B605896340A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C812D-6F45-4263-876E-93C5CD121C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>P2 | VTAC Webpage | static x3</t>
   </si>
   <si>
-    <t>P3 | Reddit static x3</t>
-  </si>
-  <si>
     <t>All Youtube videos done (send 4 Nov), waiting for review</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Last updated 5 Nov, 10:25 ICT</t>
+  </si>
+  <si>
+    <t>P3 | Reddit x3</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>37</v>
@@ -793,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>28</v>
@@ -963,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="7" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
